--- a/Web App/res/Driver.xlsx
+++ b/Web App/res/Driver.xlsx
@@ -33,11 +33,11 @@
     <style:style style:name="co2" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="64.01pt"/>
     </style:style>
-    <style:style style:name="ro1" style:family="table-row">
-      <style:table-row-properties style:row-height="12.81pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
     <style:style style:name="ro2" style:family="table-row">
       <style:table-row-properties style:row-height="12.84pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro3" style:family="table-row">
+      <style:table-row-properties style:row-height="12.81pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="Default">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
@@ -52,7 +52,7 @@
       <table:table table:name="Sheet1" table:style-name="ta1" table:print="false">
         <table:table-column table:style-name="co1" table:default-cell-style-name="ce1"/>
         <table:table-column table:style-name="co2" table:number-columns-repeated="1023" table:default-cell-style-name="ce1"/>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro3">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>ID</text:p>
           </table:table-cell>
@@ -64,7 +64,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1021"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro3">
           <table:table-cell office:value-type="float" office:value="201" calcext:value-type="float">
             <text:p>201</text:p>
           </table:table-cell>
@@ -76,7 +76,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1021"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro3">
           <table:table-cell office:value-type="float" office:value="202" calcext:value-type="float">
             <text:p>202</text:p>
           </table:table-cell>
@@ -88,7 +88,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1021"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro3">
           <table:table-cell office:value-type="float" office:value="203" calcext:value-type="float">
             <text:p>203</text:p>
           </table:table-cell>
@@ -100,7 +100,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1021"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro3">
           <table:table-cell office:value-type="float" office:value="204" calcext:value-type="float">
             <text:p>204</text:p>
           </table:table-cell>
@@ -112,7 +112,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1021"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro3">
           <table:table-cell office:value-type="float" office:value="205" calcext:value-type="float">
             <text:p>205</text:p>
           </table:table-cell>
@@ -124,10 +124,10 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1021"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048569">
+        <table:table-row table:style-name="ro3" table:number-rows-repeated="1048569">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro3">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
       </table:table>
@@ -153,10 +153,10 @@
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
     <meta:creation-date>2009-04-16T11:32:48.39</meta:creation-date>
-    <meta:editing-duration>PT8M50S</meta:editing-duration>
-    <meta:editing-cycles>3</meta:editing-cycles>
+    <meta:editing-duration>PT9M4S</meta:editing-duration>
+    <meta:editing-cycles>4</meta:editing-cycles>
     <meta:generator>LibreOffice/5.4.3.2$Windows_X86_64 LibreOffice_project/92a7159f7e4af62137622921e809f8546db437e5</meta:generator>
-    <dc:date>2017-11-29T18:01:33.281000000</dc:date>
+    <dc:date>2017-11-30T00:03:26.160000000</dc:date>
     <meta:document-statistic meta:table-count="3" meta:cell-count="18" meta:object-count="0"/>
     <meta:user-defined meta:name="Info 1"/>
     <meta:user-defined meta:name="Info 2"/>
@@ -180,7 +180,7 @@
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
               <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">5</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">0</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -198,7 +198,7 @@
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">Sheet1</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1852</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">890</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -358,9 +358,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2017-11-29">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2017-11-30">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="17:58:04.492000000">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="00:03:11.812000000">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
